--- a/Data/Excel.xlsx
+++ b/Data/Excel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4690" yWindow="4140" windowWidth="19200" windowHeight="11260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11260" windowWidth="19200" xWindow="4690" yWindow="4140"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -51,15 +51,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -406,12 +406,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="8.25" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.1640625" customWidth="1" min="3" max="5"/>
-    <col width="24.25" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="12.9140625" customWidth="1" min="7" max="7"/>
-    <col width="7.4140625" customWidth="1" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.33203125"/>
+    <col customWidth="1" max="5" min="3" width="11.1640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="24.25"/>
+    <col customWidth="1" max="7" min="7" width="12.9140625"/>
+    <col customWidth="1" max="8" min="8" width="7.4140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -536,7 +536,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -692,6 +692,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>